--- a/Others/Formula 1 观赛方式选择.xlsx
+++ b/Others/Formula 1 观赛方式选择.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>Formula 1 观赛方式选择</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,6 +90,57 @@
   </si>
   <si>
     <t>台湾Fox 2或3 HD频道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">自2019年11月起，台湾Fox频道直播源由m3u8变为flv的URL直播地址
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>安卓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">需要下载Mx Player或者Km Player进行收看
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IOS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">需要下载nPlayer进行收看
+</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -97,7 +148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +168,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -216,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -235,6 +294,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -537,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -665,6 +727,11 @@
     <row r="9" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
